--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -8,20 +8,88 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Product\Drinking_water\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A213612-48FD-4B2F-B198-FC5575F37B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67340631-87E4-4775-A78D-A7A987B99790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概念" sheetId="1" r:id="rId1"/>
+    <sheet name="硬件设计" sheetId="2" r:id="rId2"/>
+    <sheet name="软件设计" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>定时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、</t>
+  </si>
+  <si>
+    <t>4、</t>
+  </si>
+  <si>
+    <t>5、</t>
+  </si>
+  <si>
+    <t>6、</t>
+  </si>
+  <si>
+    <t>7、</t>
+  </si>
+  <si>
+    <t>8、</t>
+  </si>
+  <si>
+    <t>9、</t>
+  </si>
+  <si>
+    <t>空杯检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮用检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y*8 +x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,8 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1003,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,4 +1085,237 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ABF741-C6DF-41E3-9DED-8454C490A452}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A89B2-8AD3-4128-80AF-67162DBBE27A}">
+  <dimension ref="B2:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5</v>
+      </c>
+      <c r="P19" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <f>J19*I20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" ref="K20:Q23" si="0">K19*J20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J21:J23" si="1">J20*I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f>I21*K19</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>